--- a/biology/Botanique/Centropogon_nigricans/Centropogon_nigricans.xlsx
+++ b/biology/Botanique/Centropogon_nigricans/Centropogon_nigricans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropogon nigricans est une espèce de plantes du genre Centropogon.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante à fleurs est endémique des versants des Andes d'Équateur. 
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Centropogon nigricans a la particularité de n'être pollinisée que par l'espèce de chauve-souris Anoura fistulata. On peut expliquer cela par la grande profondeur de la corolle de la fleur (environ 75 mm) à laquelle s'est adaptée cette espèce de chauve-souris dont la langue mesure de 60 à 85 mm. Il paraît donc probable qu'il y ait eu une coévolution entre ces deux espèces, conduisant à des adaptations conjointes au cours de l'évolution.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (15 juin 2020)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (15 juin 2020) :
 variété Centropogon nigricans var. hazenii (Gleason) E. Wimm.</t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(de) Alexander Zahlbruckner, « Neue Arten und Formen der Lobelioideen. II », Feddes Repertorium Specierum Novarum Regni Vegetabilis, vol. 14, nos 7-9,‎ 1915, p. 133–144 (ISSN 0375-121X, DOI 10.1002/FEDR.19150140706, lire en ligne)</t>
         </is>
